--- a/Agricultura/Precios ODEPA 2010-2022/Colores.xlsx
+++ b/Agricultura/Precios ODEPA 2010-2022/Colores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Agricultura\Precios ODEPA 2010-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1A2CCF5-3DEA-4465-A3C1-8CC987E3EB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3725E0B6-8077-476E-AF20-48ADB2389340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{2C9BB48A-9869-4403-8370-3D9E006A87DD}"/>
   </bookViews>
@@ -667,7 +667,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -868,7 +868,9 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{7B99E90C-8FAA-4415-A68A-EB5AA1BBB2FE}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -915,9 +917,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -955,7 +957,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1061,7 +1063,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1203,7 +1205,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1214,7 +1216,7 @@
   <dimension ref="A2:M165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E9"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
